--- a/biology/Zoologie/Gonocephalus_chamaeleontinus/Gonocephalus_chamaeleontinus.xlsx
+++ b/biology/Zoologie/Gonocephalus_chamaeleontinus/Gonocephalus_chamaeleontinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gonocephalus chamaeleontinus est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gonocephalus chamaeleontinus est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Indonésie à Sumatra, à Bangka, à Sipura, à Siberut, aux îles Batu, aux îles Banyak, à Natuna, à Nias, aux Îles Mentawai et à Java ;
 en Malaisie péninsulaire à Tioman.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet agame vit en milieu tropical humide, dans les forêts du centre Java. C’est une espèce moyenne de 32 à 45 cm assez territorial. La maintenance est proche de celle des caméléons, l’hydratation devant être faite par un goutte-à-goutte. Les femelles sont vertes et les mâles plutôt bleutés avec des taches jaune vif, tirant souvent sur l'orange.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum Vienna Joan Thomae, p. 1-217 (texte intégral).</t>
         </is>
